--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,139 +40,160 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>pop</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>kitchen</t>
@@ -181,121 +202,112 @@
     <t>day</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>keeps</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>far</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>better</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -659,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3434343434343434</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3178294573643411</v>
+        <v>0.3434343434343434</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2054054054054054</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +890,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +916,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8498452012383901</v>
+        <v>0.859375</v>
       </c>
       <c r="L7">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>549</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +942,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +968,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7402597402597403</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +994,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7397260273972602</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1020,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.735593220338983</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="L11">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1046,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7333333333333333</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1060,13 +1072,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7272727272727273</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L13">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1086,13 +1098,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7142857142857143</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1104,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1112,13 +1124,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.703125</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1130,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1138,13 +1150,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.678714859437751</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L16">
-        <v>845</v>
+        <v>54</v>
       </c>
       <c r="M16">
-        <v>846</v>
+        <v>54</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>400</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1164,13 +1176,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1190,13 +1202,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6619718309859155</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>840</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>840</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1216,13 +1228,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6615384615384615</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1242,13 +1254,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6470588235294118</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1268,13 +1280,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6388888888888888</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1294,13 +1306,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6342857142857142</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L22">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1320,13 +1332,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6457142857142857</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1338,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1346,13 +1358,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1372,13 +1384,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5737704918032787</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1398,13 +1410,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1424,13 +1436,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5673076923076923</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1450,13 +1462,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5542168674698795</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1476,13 +1488,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5508982035928144</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L29">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1502,13 +1514,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1520,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1528,13 +1540,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5299145299145299</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1554,13 +1566,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5185185185185185</v>
+        <v>0.5645161290322581</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1572,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1580,13 +1592,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.5161290322580645</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1598,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1606,13 +1618,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.5112781954887218</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L34">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1624,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1632,13 +1644,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.51</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L35">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1650,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1658,13 +1670,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1676,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1684,13 +1696,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4342105263157895</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1702,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1710,13 +1722,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4337349397590362</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L38">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1728,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1736,13 +1748,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4166666666666667</v>
+        <v>0.48</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1754,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1762,13 +1774,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4166666666666667</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L40">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1780,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>238</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1788,13 +1800,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.4085603112840467</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L41">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="M41">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1806,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>152</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1814,13 +1826,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.4054054054054054</v>
+        <v>0.4338235294117647</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="M42">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1832,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>66</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1840,25 +1852,25 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3972602739726027</v>
+        <v>0.41015625</v>
       </c>
       <c r="L43">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="M43">
-        <v>290</v>
+        <v>106</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>440</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1866,25 +1878,25 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3798076923076923</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="L44">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>129</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1892,13 +1904,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3762376237623762</v>
+        <v>0.3753424657534247</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1910,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>63</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1918,25 +1930,25 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3759398496240601</v>
+        <v>0.3533333333333333</v>
       </c>
       <c r="L46">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M46">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1944,13 +1956,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3525179856115108</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L47">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M47">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1962,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1970,13 +1982,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3425925925925926</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L48">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1988,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1996,13 +2008,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2014,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2022,13 +2034,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.3304628632938644</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L50">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="M50">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2040,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>622</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2048,13 +2060,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.3238095238095238</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2066,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>71</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2074,13 +2086,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.3178807947019868</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="L52">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2092,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2100,13 +2112,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2714468629961588</v>
+        <v>0.3060344827586207</v>
       </c>
       <c r="L53">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="M53">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2118,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>569</v>
+        <v>644</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2126,13 +2138,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2692307692307692</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2144,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2152,13 +2164,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2684563758389262</v>
+        <v>0.2885906040268457</v>
       </c>
       <c r="L55">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M55">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2170,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2178,13 +2190,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2660550458715596</v>
+        <v>0.2834437086092715</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="M56">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2196,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>80</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2204,13 +2216,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2596026490066225</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L57">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2222,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>559</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2230,13 +2242,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2558139534883721</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2248,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2256,13 +2268,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2539184952978056</v>
+        <v>0.2573623559539053</v>
       </c>
       <c r="L59">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="M59">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2271,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>238</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2282,13 +2294,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.2459016393442623</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2300,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2308,25 +2320,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.2118959107806691</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L61">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>212</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2334,13 +2346,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.2083333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L62">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="M62">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2352,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>361</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2360,25 +2372,25 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.2049180327868853</v>
+        <v>0.2213740458015267</v>
       </c>
       <c r="L63">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M63">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="N63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>291</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2386,25 +2398,25 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.2</v>
+        <v>0.2172413793103448</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>124</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2412,25 +2424,25 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.2</v>
+        <v>0.2118959107806691</v>
       </c>
       <c r="L65">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M65">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2438,13 +2450,13 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1995133819951338</v>
+        <v>0.2068126520681265</v>
       </c>
       <c r="L66">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M66">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2456,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2464,25 +2476,25 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.198019801980198</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="L67">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="M67">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>162</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2490,13 +2502,13 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1977401129943503</v>
+        <v>0.2017543859649123</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="M68">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2508,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>142</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2516,25 +2528,25 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.1972318339100346</v>
+        <v>0.2007434944237918</v>
       </c>
       <c r="L69">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M69">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N69">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O69">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2542,13 +2554,13 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.1932773109243698</v>
+        <v>0.1954545454545455</v>
       </c>
       <c r="L70">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M70">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2560,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>192</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2568,25 +2580,25 @@
         <v>80</v>
       </c>
       <c r="K71">
-        <v>0.1913875598086124</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L71">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="N71">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>338</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2594,13 +2606,13 @@
         <v>81</v>
       </c>
       <c r="K72">
-        <v>0.1909090909090909</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="L72">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="M72">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2612,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>356</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2620,13 +2632,13 @@
         <v>82</v>
       </c>
       <c r="K73">
-        <v>0.1890243902439024</v>
+        <v>0.1813842482100239</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M73">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2638,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>133</v>
+        <v>343</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2646,7 +2658,7 @@
         <v>83</v>
       </c>
       <c r="K74">
-        <v>0.1757575757575758</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="L74">
         <v>29</v>
@@ -2664,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2672,25 +2684,25 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.139367816091954</v>
+        <v>0.17</v>
       </c>
       <c r="L75">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="M75">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>599</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2698,25 +2710,25 @@
         <v>85</v>
       </c>
       <c r="K76">
-        <v>0.1229508196721311</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="L76">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M76">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>321</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2724,25 +2736,25 @@
         <v>86</v>
       </c>
       <c r="K77">
-        <v>0.1190253045923149</v>
+        <v>0.1512195121951219</v>
       </c>
       <c r="L77">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="M77">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>940</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2750,13 +2762,13 @@
         <v>87</v>
       </c>
       <c r="K78">
-        <v>0.1116751269035533</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="L78">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M78">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2768,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>350</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2776,25 +2788,25 @@
         <v>88</v>
       </c>
       <c r="K79">
-        <v>0.1066176470588235</v>
+        <v>0.1397260273972603</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M79">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>243</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2802,25 +2814,25 @@
         <v>89</v>
       </c>
       <c r="K80">
-        <v>0.1053604436229205</v>
+        <v>0.1364485981308411</v>
       </c>
       <c r="L80">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="M80">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="N80">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>484</v>
+        <v>924</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2828,25 +2840,25 @@
         <v>90</v>
       </c>
       <c r="K81">
-        <v>0.09418282548476455</v>
+        <v>0.1336206896551724</v>
       </c>
       <c r="L81">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="M81">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="N81">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O81">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>327</v>
+        <v>603</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2854,25 +2866,25 @@
         <v>91</v>
       </c>
       <c r="K82">
-        <v>0.09194395796847636</v>
+        <v>0.1048593350383632</v>
       </c>
       <c r="L82">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="M82">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="N82">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O82">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1037</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2880,25 +2892,25 @@
         <v>92</v>
       </c>
       <c r="K83">
-        <v>0.08958837772397095</v>
+        <v>0.09641873278236915</v>
       </c>
       <c r="L83">
+        <v>35</v>
+      </c>
+      <c r="M83">
         <v>37</v>
       </c>
-      <c r="M83">
-        <v>38</v>
-      </c>
       <c r="N83">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O83">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2906,25 +2918,25 @@
         <v>93</v>
       </c>
       <c r="K84">
-        <v>0.07899807321772639</v>
+        <v>0.09024390243902439</v>
       </c>
       <c r="L84">
+        <v>37</v>
+      </c>
+      <c r="M84">
         <v>41</v>
       </c>
-      <c r="M84">
-        <v>44</v>
-      </c>
       <c r="N84">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="O84">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>478</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -2932,25 +2944,129 @@
         <v>94</v>
       </c>
       <c r="K85">
-        <v>0.05193075898801598</v>
+        <v>0.08914728682170543</v>
       </c>
       <c r="L85">
+        <v>46</v>
+      </c>
+      <c r="M85">
+        <v>52</v>
+      </c>
+      <c r="N85">
+        <v>0.88</v>
+      </c>
+      <c r="O85">
+        <v>0.12</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K86">
+        <v>0.08688097306689835</v>
+      </c>
+      <c r="L86">
+        <v>100</v>
+      </c>
+      <c r="M86">
+        <v>106</v>
+      </c>
+      <c r="N86">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O86">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K87">
+        <v>0.07967032967032966</v>
+      </c>
+      <c r="L87">
+        <v>29</v>
+      </c>
+      <c r="M87">
+        <v>36</v>
+      </c>
+      <c r="N87">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O87">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K88">
+        <v>0.07948243992606285</v>
+      </c>
+      <c r="L88">
+        <v>43</v>
+      </c>
+      <c r="M88">
+        <v>44</v>
+      </c>
+      <c r="N88">
+        <v>0.98</v>
+      </c>
+      <c r="O88">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K89">
+        <v>0.0520694259012016</v>
+      </c>
+      <c r="L89">
         <v>39</v>
       </c>
-      <c r="M85">
-        <v>55</v>
-      </c>
-      <c r="N85">
-        <v>0.71</v>
-      </c>
-      <c r="O85">
-        <v>0.29</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>712</v>
+      <c r="M89">
+        <v>57</v>
+      </c>
+      <c r="N89">
+        <v>0.68</v>
+      </c>
+      <c r="O89">
+        <v>0.32</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
